--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H2">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I2">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J2">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N2">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O2">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P2">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q2">
-        <v>4.444101703365277</v>
+        <v>5.295731877709001</v>
       </c>
       <c r="R2">
-        <v>4.444101703365277</v>
+        <v>47.661586899381</v>
       </c>
       <c r="S2">
-        <v>0.0338325025785598</v>
+        <v>0.03610130798478756</v>
       </c>
       <c r="T2">
-        <v>0.0338325025785598</v>
+        <v>0.03610130798478756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H3">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I3">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J3">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N3">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P3">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q3">
-        <v>6.137655880342763</v>
+        <v>6.777944132140999</v>
       </c>
       <c r="R3">
-        <v>6.137655880342763</v>
+        <v>61.001497189269</v>
       </c>
       <c r="S3">
-        <v>0.04672536144723363</v>
+        <v>0.04620563394609829</v>
       </c>
       <c r="T3">
-        <v>0.04672536144723363</v>
+        <v>0.04620563394609829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H4">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I4">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J4">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N4">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O4">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P4">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q4">
-        <v>4.547803882117151</v>
+        <v>5.677564139878333</v>
       </c>
       <c r="R4">
-        <v>4.547803882117151</v>
+        <v>51.098077258905</v>
       </c>
       <c r="S4">
-        <v>0.03462197691200457</v>
+        <v>0.03870428041870667</v>
       </c>
       <c r="T4">
-        <v>0.03462197691200457</v>
+        <v>0.03870428041870667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33492556782874</v>
+        <v>1.466863</v>
       </c>
       <c r="H5">
-        <v>1.33492556782874</v>
+        <v>4.400589</v>
       </c>
       <c r="I5">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="J5">
-        <v>0.1426457136820074</v>
+        <v>0.1487565800342047</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N5">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O5">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P5">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q5">
-        <v>3.607806769940428</v>
+        <v>4.069990350786001</v>
       </c>
       <c r="R5">
-        <v>3.607806769940428</v>
+        <v>36.629913157074</v>
       </c>
       <c r="S5">
-        <v>0.02746587274420943</v>
+        <v>0.02774535768461215</v>
       </c>
       <c r="T5">
-        <v>0.02746587274420943</v>
+        <v>0.02774535768461215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H6">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I6">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J6">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N6">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O6">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P6">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q6">
-        <v>14.6388086993754</v>
+        <v>16.08764234155867</v>
       </c>
       <c r="R6">
-        <v>14.6388086993754</v>
+        <v>144.788781074028</v>
       </c>
       <c r="S6">
-        <v>0.1114437891224727</v>
+        <v>0.1096703806637909</v>
       </c>
       <c r="T6">
-        <v>0.1114437891224727</v>
+        <v>0.1096703806637909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H7">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I7">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J7">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N7">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P7">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q7">
-        <v>20.21735241272656</v>
+        <v>20.59038175024133</v>
       </c>
       <c r="R7">
-        <v>20.21735241272656</v>
+        <v>185.313435752172</v>
       </c>
       <c r="S7">
-        <v>0.1539126854629057</v>
+        <v>0.1403658134994911</v>
       </c>
       <c r="T7">
-        <v>0.1539126854629057</v>
+        <v>0.1403658134994911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H8">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I8">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J8">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N8">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O8">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P8">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q8">
-        <v>14.98040222215809</v>
+        <v>17.24759171401556</v>
       </c>
       <c r="R8">
-        <v>14.98040222215809</v>
+        <v>155.22832542614</v>
       </c>
       <c r="S8">
-        <v>0.1140443065074852</v>
+        <v>0.1175778220729929</v>
       </c>
       <c r="T8">
-        <v>0.1140443065074852</v>
+        <v>0.1175778220729929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.39722610320824</v>
+        <v>4.456110666666667</v>
       </c>
       <c r="H9">
-        <v>4.39722610320824</v>
+        <v>13.368332</v>
       </c>
       <c r="I9">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417918</v>
       </c>
       <c r="J9">
-        <v>0.4698729808085917</v>
+        <v>0.4519002681417919</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.70262766470833</v>
+        <v>2.774622</v>
       </c>
       <c r="N9">
-        <v>2.70262766470833</v>
+        <v>8.323866000000001</v>
       </c>
       <c r="O9">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="P9">
-        <v>0.1925460782189197</v>
+        <v>0.1865151624098407</v>
       </c>
       <c r="Q9">
-        <v>11.8840649145082</v>
+        <v>12.364022690168</v>
       </c>
       <c r="R9">
-        <v>11.8840649145082</v>
+        <v>111.276204211512</v>
       </c>
       <c r="S9">
-        <v>0.09047219971572805</v>
+        <v>0.08428625190551686</v>
       </c>
       <c r="T9">
-        <v>0.09047219971572805</v>
+        <v>0.08428625190551686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H10">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I10">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J10">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.32910074573942</v>
+        <v>3.610243</v>
       </c>
       <c r="N10">
-        <v>3.32910074573942</v>
+        <v>10.830729</v>
       </c>
       <c r="O10">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="P10">
-        <v>0.2371785432963013</v>
+        <v>0.2426871334127641</v>
       </c>
       <c r="Q10">
-        <v>12.07191078783698</v>
+        <v>1.041118266097</v>
       </c>
       <c r="R10">
-        <v>12.07191078783698</v>
+        <v>9.370064394873001</v>
       </c>
       <c r="S10">
-        <v>0.0919022515952688</v>
+        <v>0.007097362940741604</v>
       </c>
       <c r="T10">
-        <v>0.0919022515952688</v>
+        <v>0.007097362940741604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H11">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I11">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J11">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.59775138648792</v>
+        <v>4.620706999999999</v>
       </c>
       <c r="N11">
-        <v>4.59775138648792</v>
+        <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="P11">
-        <v>0.3275623237540528</v>
+        <v>0.3106123704610169</v>
       </c>
       <c r="Q11">
-        <v>16.67226341328644</v>
+        <v>1.332514863953</v>
       </c>
       <c r="R11">
-        <v>16.67226341328644</v>
+        <v>11.992633775577</v>
       </c>
       <c r="S11">
-        <v>0.1269242768439134</v>
+        <v>0.00908383026345465</v>
       </c>
       <c r="T11">
-        <v>0.1269242768439134</v>
+        <v>0.009083830263454652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.62617767073784</v>
+        <v>0.288379</v>
       </c>
       <c r="H12">
-        <v>3.62617767073784</v>
+        <v>0.865137</v>
       </c>
       <c r="I12">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="J12">
-        <v>0.387481305509401</v>
+        <v>0.02924490821138983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.4067846116051</v>
+        <v>3.870548333333333</v>
       </c>
       <c r="N12">
-        <v>3.4067846116051</v>
+        <v>11.611645</v>
       </c>
       <c r="O12">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="P12">
-        <v>0.2427130547307262</v>
+        <v>0.2601853337163782</v>
       </c>
       <c r="Q12">
-        <v>12.3536062876157</v>
+        <v>1.116184857818333</v>
       </c>
       <c r="R12">
-        <v>12.3536062876157</v>
+        <v>10.045663720365</v>
       </c>
       <c r="S12">
-        <v>0.09404677131123647</v>
+        <v>0.007609096202485311</v>
       </c>
       <c r="T12">
-        <v>0.09404677131123647</v>
+        <v>0.007609096202485312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.288379</v>
+      </c>
+      <c r="H13">
+        <v>0.865137</v>
+      </c>
+      <c r="I13">
+        <v>0.02924490821138983</v>
+      </c>
+      <c r="J13">
+        <v>0.02924490821138983</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.774622</v>
+      </c>
+      <c r="N13">
+        <v>8.323866000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1865151624098407</v>
+      </c>
+      <c r="P13">
+        <v>0.1865151624098407</v>
+      </c>
+      <c r="Q13">
+        <v>0.8001427177380001</v>
+      </c>
+      <c r="R13">
+        <v>7.201284459642001</v>
+      </c>
+      <c r="S13">
+        <v>0.005454618804708257</v>
+      </c>
+      <c r="T13">
+        <v>0.005454618804708257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.649475</v>
+      </c>
+      <c r="H14">
+        <v>10.948425</v>
+      </c>
+      <c r="I14">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J14">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.610243</v>
+      </c>
+      <c r="N14">
+        <v>10.830729</v>
+      </c>
+      <c r="O14">
+        <v>0.2426871334127641</v>
+      </c>
+      <c r="P14">
+        <v>0.2426871334127641</v>
+      </c>
+      <c r="Q14">
+        <v>13.175491572425</v>
+      </c>
+      <c r="R14">
+        <v>118.579424151825</v>
+      </c>
+      <c r="S14">
+        <v>0.08981808182344403</v>
+      </c>
+      <c r="T14">
+        <v>0.08981808182344403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.649475</v>
+      </c>
+      <c r="H15">
+        <v>10.948425</v>
+      </c>
+      <c r="I15">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J15">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.620706999999999</v>
+      </c>
+      <c r="N15">
+        <v>13.862121</v>
+      </c>
+      <c r="O15">
+        <v>0.3106123704610169</v>
+      </c>
+      <c r="P15">
+        <v>0.3106123704610169</v>
+      </c>
+      <c r="Q15">
+        <v>16.863154678825</v>
+      </c>
+      <c r="R15">
+        <v>151.768392109425</v>
+      </c>
+      <c r="S15">
+        <v>0.1149570927519728</v>
+      </c>
+      <c r="T15">
+        <v>0.1149570927519728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.62617767073784</v>
-      </c>
-      <c r="H13">
-        <v>3.62617767073784</v>
-      </c>
-      <c r="I13">
-        <v>0.387481305509401</v>
-      </c>
-      <c r="J13">
-        <v>0.387481305509401</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.70262766470833</v>
-      </c>
-      <c r="N13">
-        <v>2.70262766470833</v>
-      </c>
-      <c r="O13">
-        <v>0.1925460782189197</v>
-      </c>
-      <c r="P13">
-        <v>0.1925460782189197</v>
-      </c>
-      <c r="Q13">
-        <v>9.8002080900837</v>
-      </c>
-      <c r="R13">
-        <v>9.8002080900837</v>
-      </c>
-      <c r="S13">
-        <v>0.07460800575898224</v>
-      </c>
-      <c r="T13">
-        <v>0.07460800575898224</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.649475</v>
+      </c>
+      <c r="H16">
+        <v>10.948425</v>
+      </c>
+      <c r="I16">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J16">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.870548333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.611645</v>
+      </c>
+      <c r="O16">
+        <v>0.2601853337163782</v>
+      </c>
+      <c r="P16">
+        <v>0.2601853337163782</v>
+      </c>
+      <c r="Q16">
+        <v>14.12546937879167</v>
+      </c>
+      <c r="R16">
+        <v>127.129224409125</v>
+      </c>
+      <c r="S16">
+        <v>0.09629413502219329</v>
+      </c>
+      <c r="T16">
+        <v>0.09629413502219331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.649475</v>
+      </c>
+      <c r="H17">
+        <v>10.948425</v>
+      </c>
+      <c r="I17">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="J17">
+        <v>0.3700982436126136</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.774622</v>
+      </c>
+      <c r="N17">
+        <v>8.323866000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1865151624098407</v>
+      </c>
+      <c r="P17">
+        <v>0.1865151624098407</v>
+      </c>
+      <c r="Q17">
+        <v>10.12591362345</v>
+      </c>
+      <c r="R17">
+        <v>91.13322261105002</v>
+      </c>
+      <c r="S17">
+        <v>0.0690289340150034</v>
+      </c>
+      <c r="T17">
+        <v>0.0690289340150034</v>
       </c>
     </row>
   </sheetData>
